--- a/data/Улахан Ан 2 скв 6 лес.xlsx
+++ b/data/Улахан Ан 2 скв 6 лес.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\java\well_average_daily_Value_calculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395D44BC-3A3C-4857-B5DE-D4472EFBA348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F7AF2C-91E8-4C46-873E-CF96E348EE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{05CAD2F9-28E4-48B5-9833-7B217E7A9B0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{05CAD2F9-28E4-48B5-9833-7B217E7A9B0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Улахан Ан 2 скв 6 лес" sheetId="1" r:id="rId1"/>
@@ -82895,7 +82895,7 @@
   <dimension ref="A1:L361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
